--- a/Arquivo Excel/Analise Apple.xlsx
+++ b/Arquivo Excel/Analise Apple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos GitHub\Cohort-Analysis-Apple-Sales\Arquivo Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8705CCDF-7B9A-423B-8A77-A5E236FB0F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BD42C2-0EBD-48DE-9267-DCEAB093C41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3326580-E837-47DC-8FE3-700E384DC15D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3326580-E837-47DC-8FE3-700E384DC15D}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -160,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,29 +294,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -327,9 +321,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,13 +333,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,29 +359,7 @@
   </cellStyles>
   <dxfs count="102">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <fill>
@@ -405,7 +386,78 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -446,6 +498,30 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -456,7 +532,78 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -469,6 +616,159 @@
       <font>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -562,357 +862,60 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1089,49 +1092,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1215,49 +1176,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2317,49 +2236,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2443,49 +2320,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3236,6 +3071,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-93CD-481A-8D5D-ED3F8DEC51C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3278,6 +3118,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-93CD-481A-8D5D-ED3F8DEC51C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4261,6 +4106,73 @@
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Caixa Disponível x Dívida por Ano</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -4304,49 +4216,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4430,49 +4300,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7920,14 +7748,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123266</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>12325</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>158001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>43701</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>189377</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8053,16 +7881,16 @@
         <n v="2009"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="EBITDA (millions)" numFmtId="165">
+    <cacheField name="EBITDA (millions)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="12.474" maxValue="134.661"/>
     </cacheField>
-    <cacheField name="Revenue (millions)" numFmtId="165">
+    <cacheField name="Revenue (millions)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="42.905000000000001" maxValue="394.32799999999997"/>
     </cacheField>
-    <cacheField name="Gross Profit (millions)" numFmtId="165">
+    <cacheField name="Gross Profit (millions)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="17.222000000000001" maxValue="180.68299999999999"/>
     </cacheField>
-    <cacheField name="Op Income (millions)" numFmtId="165">
+    <cacheField name="Op Income (millions)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.74" maxValue="123.21599999999999" count="16">
         <n v="123.21599999999999"/>
         <n v="114.301"/>
@@ -8082,7 +7910,7 @@
         <n v="11.74"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Net Income (millions)" numFmtId="165">
+    <cacheField name="Net Income (millions)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.2349999999999994" maxValue="99.802999999999997" count="16">
         <n v="93.736000000000004"/>
         <n v="96.995000000000005"/>
@@ -8102,16 +7930,16 @@
         <n v="8.2349999999999994"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="EPS" numFmtId="165">
+    <cacheField name="EPS" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.32" maxValue="6.13"/>
     </cacheField>
     <cacheField name="Shares Outstanding" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.407999999999999" maxValue="26.47"/>
     </cacheField>
-    <cacheField name="Year Close Price" numFmtId="165">
+    <cacheField name="Year Close Price" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="243.04" maxValue="1915919"/>
     </cacheField>
-    <cacheField name="Total Assets (millions)" numFmtId="165">
+    <cacheField name="Total Assets (millions)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.500999999999998" maxValue="375.31900000000002" count="16">
         <n v="364.98"/>
         <n v="352.58300000000003"/>
@@ -8131,13 +7959,13 @@
         <n v="47.500999999999998"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Cash on Hand (millions)" numFmtId="165">
+    <cacheField name="Cash on Hand (millions)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="23.463999999999999" maxValue="100.557"/>
     </cacheField>
-    <cacheField name="Long Term Debt (millions)" numFmtId="165">
+    <cacheField name="Long Term Debt (millions)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="109.10599999999999"/>
     </cacheField>
-    <cacheField name="Total Liabilities (millions)" numFmtId="165">
+    <cacheField name="Total Liabilities (millions)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.861000000000001" maxValue="308.02999999999997" count="16">
         <n v="308.02999999999997"/>
         <n v="290.43700000000001"/>
@@ -8470,42 +8298,42 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A122:B126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABB1AB7C-3ED1-4672-8A1B-C3253ABAE92D}" name="Evolução de Indicadores Financeiros" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A102:C119" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0">
       <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="10" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -8514,7 +8342,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -8523,55 +8351,71 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Soma de EBITDA (millions)" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Cash on Hand (millions)" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="10">
-    <format dxfId="32">
+  <formats count="2">
+    <format dxfId="24">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
+    <format dxfId="23">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -8587,7 +8431,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25EA3F83-3197-4312-B9AF-DD6373F3FDB7}" name="Tabela dinâmica10" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25EA3F83-3197-4312-B9AF-DD6373F3FDB7}" name="Tabela dinâmica10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B2:E19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
@@ -8611,18 +8455,18 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="10" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -8704,10 +8548,10 @@
     <dataField name="Soma de EBITDA (millions)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="8">
+    <format dxfId="22">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -8718,10 +8562,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="20">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -8732,19 +8576,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="18">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="16">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -8794,847 +8638,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABB1AB7C-3ED1-4672-8A1B-C3253ABAE92D}" name="Evolução de Indicadores Financeiros" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A102:C119" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de EBITDA (millions)" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Cash on Hand (millions)" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="37">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6778C877-11E3-4EDF-A254-291309AC6EE8}" name="Margem de Lucro (%) por Ano" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A82:D99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Margem de Lucro (%)" fld="16" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="57">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="47">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="45">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E6C06B-847E-4838-9560-233BCB068DED}" name="Ativos Totais vs. Passivos Totais" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A62:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Total Assets (millions)" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Total Liabilities (millions)" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="58">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="54">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="53">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AEFACEC-E977-4D79-B948-EA1D52615EB1}" name="Caixa Disponível x Dívida por Ano" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A42:C59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Cash on Hand (millions)" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Long Term Debt (millions)" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="61">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="41">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7019D5E9-8668-481F-87CE-AA3E58A3D51A}" name="Lucro Operacional e Lucro Líquido por Ano" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A22:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Op Income (millions)" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="62">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="64">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="66">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="68">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="69">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="70">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E34C066-EC88-4C7C-99B9-5BEBD2A8F13E}" name=" Receita Anual Total" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption=" Receita Anual Total">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E34C066-EC88-4C7C-99B9-5BEBD2A8F13E}" name=" Receita Anual Total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption=" Receita Anual Total">
   <location ref="A2:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
@@ -9735,46 +8739,870 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="71">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="36">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="34">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="32">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="30">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="28">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="26">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6778C877-11E3-4EDF-A254-291309AC6EE8}" name="Margem de Lucro (%) por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A82:D99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Margem de Lucro (%)" fld="16" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="47">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E6C06B-847E-4838-9560-233BCB068DED}" name="Ativos Totais vs. Passivos Totais" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A62:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Total Assets (millions)" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total Liabilities (millions)" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="56">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AEFACEC-E977-4D79-B948-EA1D52615EB1}" name="Caixa Disponível x Dívida por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A42:C59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Cash on Hand (millions)" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Long Term Debt (millions)" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="64">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7019D5E9-8668-481F-87CE-AA3E58A3D51A}" name="Lucro Operacional e Lucro Líquido por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A22:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Op Income (millions)" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="73">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A122:B126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="10">
     <format dxfId="83">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="82">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="81">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9791,7 +9619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F76ADE55-BD12-4B1A-8AB0-9285366F9A8D}" name="Tabela dinâmica15" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F76ADE55-BD12-4B1A-8AB0-9285366F9A8D}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B79:D96" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
@@ -9815,18 +9643,18 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="10" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9904,16 +9732,26 @@
     <dataField name="Soma de Long Term Debt (millions)" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
         </references>
       </pivotArea>
     </format>
@@ -9927,23 +9765,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9980,7 +9808,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9560F7C-7C34-440A-8449-E33EAD9CCBB1}" name="Tabela dinâmica11" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9560F7C-7C34-440A-8449-E33EAD9CCBB1}" name="Tabela dinâmica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B22:D39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
@@ -10004,10 +9832,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0">
       <items count="17">
         <item x="15"/>
         <item x="14"/>
@@ -10028,7 +9856,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0">
+    <pivotField dataField="1" numFmtId="164" showAll="0">
       <items count="17">
         <item x="15"/>
         <item x="14"/>
@@ -10049,13 +9877,13 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="10" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10133,10 +9961,10 @@
     <dataField name="Soma de Op Income (millions)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="22">
+    <format dxfId="13">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10146,10 +9974,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10159,7 +9987,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="9">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -10168,7 +9996,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="8">
       <pivotArea field="0" dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -10231,22 +10059,22 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{2CF2503D-5FBB-4858-9B38-38FCC70E64AB}" name="year" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{8B4442B8-2472-4C6B-93D5-6E1BEE5A5729}" name="EBITDA (millions)" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{4CF6945F-E27D-47E0-8164-1E435A4665CC}" name="Revenue (millions)" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{D501E4C1-16E2-48F4-A898-1DA11CA8FA92}" name="Gross Profit (millions)" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{3539C88D-B891-45E6-8726-32926FBA8282}" name="Op Income (millions)" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{E7B95EEB-F368-4331-A831-6BC23B467607}" name="Net Income (millions)" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{DA644284-181C-4B22-81C1-441D2E957BEB}" name="EPS" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{9AE649D6-41B0-4FF1-A871-85B1AADF9C12}" name="Shares Outstanding" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{9188A03A-FA02-4D36-8C8B-7BAD4BC1856B}" name="Year Close Price" dataDxfId="90"/>
-    <tableColumn id="10" xr3:uid="{2421FE63-175F-4D2D-9F96-A40A87CE88D5}" name="Total Assets (millions)" dataDxfId="89"/>
-    <tableColumn id="11" xr3:uid="{B19952D6-57A8-440D-9E7E-A53B1F3D95E8}" name="Cash on Hand (millions)" dataDxfId="88"/>
-    <tableColumn id="12" xr3:uid="{A7D5B385-43E9-4799-8D1B-FA887D14EDC8}" name="Long Term Debt (millions)" dataDxfId="87"/>
-    <tableColumn id="13" xr3:uid="{AA4D0B36-930C-40F2-9203-4B8492060C4D}" name="Total Liabilities (millions)" dataDxfId="86"/>
-    <tableColumn id="14" xr3:uid="{A6C4A35F-11B9-46AE-88B9-86D08F5901A8}" name="Gross Margin" dataDxfId="84" dataCellStyle="Porcentagem"/>
+    <tableColumn id="1" xr3:uid="{2CF2503D-5FBB-4858-9B38-38FCC70E64AB}" name="year" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{8B4442B8-2472-4C6B-93D5-6E1BEE5A5729}" name="EBITDA (millions)" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{4CF6945F-E27D-47E0-8164-1E435A4665CC}" name="Revenue (millions)" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{D501E4C1-16E2-48F4-A898-1DA11CA8FA92}" name="Gross Profit (millions)" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{3539C88D-B891-45E6-8726-32926FBA8282}" name="Op Income (millions)" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{E7B95EEB-F368-4331-A831-6BC23B467607}" name="Net Income (millions)" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{DA644284-181C-4B22-81C1-441D2E957BEB}" name="EPS" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{9AE649D6-41B0-4FF1-A871-85B1AADF9C12}" name="Shares Outstanding" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{9188A03A-FA02-4D36-8C8B-7BAD4BC1856B}" name="Year Close Price" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{2421FE63-175F-4D2D-9F96-A40A87CE88D5}" name="Total Assets (millions)" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{B19952D6-57A8-440D-9E7E-A53B1F3D95E8}" name="Cash on Hand (millions)" dataDxfId="89"/>
+    <tableColumn id="12" xr3:uid="{A7D5B385-43E9-4799-8D1B-FA887D14EDC8}" name="Long Term Debt (millions)" dataDxfId="88"/>
+    <tableColumn id="13" xr3:uid="{AA4D0B36-930C-40F2-9203-4B8492060C4D}" name="Total Liabilities (millions)" dataDxfId="87"/>
+    <tableColumn id="14" xr3:uid="{A6C4A35F-11B9-46AE-88B9-86D08F5901A8}" name="Gross Margin" dataDxfId="86" dataCellStyle="Porcentagem"/>
     <tableColumn id="15" xr3:uid="{3A1AA4F7-5A5A-49D4-9F9D-442C4B528158}" name="PE ratio" dataDxfId="85"/>
-    <tableColumn id="16" xr3:uid="{611FA5AB-D08A-4255-97B8-63E7ADBE8452}" name="Employees" dataDxfId="99"/>
+    <tableColumn id="16" xr3:uid="{611FA5AB-D08A-4255-97B8-63E7ADBE8452}" name="Employees" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10551,7 +10379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A813097E-4DE9-4455-96C0-DF1A8B6C69CF}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -11457,16 +11285,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11599,28 +11427,28 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>3739.9289999999996</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11801,31 +11629,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>1080.2749999999999</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>871.29399999999998</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12006,31 +11834,31 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>848.19499999999994</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="10">
         <v>945.21499999999992</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12211,35 +12039,35 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>4290.7569999999996</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="10">
         <v>2903.9219999999996</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -12253,7 +12081,7 @@
       <c r="C83" s="6">
         <v>8.2349999999999994</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="14">
         <v>19.193567183311966</v>
       </c>
     </row>
@@ -12267,7 +12095,7 @@
       <c r="C84" s="6">
         <v>14.013</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="14">
         <v>21.484093522422384</v>
       </c>
     </row>
@@ -12281,7 +12109,7 @@
       <c r="C85" s="6">
         <v>25.922000000000001</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="14">
         <v>23.946641539413761</v>
       </c>
     </row>
@@ -12295,7 +12123,7 @@
       <c r="C86" s="6">
         <v>41.732999999999997</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86" s="14">
         <v>26.665090602397317</v>
       </c>
     </row>
@@ -12309,7 +12137,7 @@
       <c r="C87" s="6">
         <v>37.036999999999999</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="14">
         <v>21.670469837926394</v>
       </c>
     </row>
@@ -12323,7 +12151,7 @@
       <c r="C88" s="6">
         <v>39.51</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="14">
         <v>21.614376760852323</v>
       </c>
     </row>
@@ -12337,7 +12165,7 @@
       <c r="C89" s="6">
         <v>53.393999999999998</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="14">
         <v>22.845773698735638</v>
       </c>
     </row>
@@ -12351,7 +12179,7 @@
       <c r="C90" s="6">
         <v>45.686999999999998</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="14">
         <v>21.186798306428798</v>
       </c>
     </row>
@@ -12365,7 +12193,7 @@
       <c r="C91" s="6">
         <v>48.350999999999999</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="14">
         <v>21.092420845075335</v>
       </c>
     </row>
@@ -12379,7 +12207,7 @@
       <c r="C92" s="6">
         <v>59.530999999999999</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D92" s="14">
         <v>22.414202074587244</v>
       </c>
     </row>
@@ -12393,7 +12221,7 @@
       <c r="C93" s="6">
         <v>55.256</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="14">
         <v>21.23809450598446</v>
       </c>
     </row>
@@ -12407,7 +12235,7 @@
       <c r="C94" s="6">
         <v>57.411000000000001</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D94" s="14">
         <v>20.913611278072239</v>
       </c>
     </row>
@@ -12421,7 +12249,7 @@
       <c r="C95" s="6">
         <v>94.68</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="14">
         <v>25.881793355694242</v>
       </c>
     </row>
@@ -12435,7 +12263,7 @@
       <c r="C96" s="6">
         <v>99.802999999999997</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D96" s="14">
         <v>25.309640705199733</v>
       </c>
     </row>
@@ -12449,7 +12277,7 @@
       <c r="C97" s="6">
         <v>96.995000000000005</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="14">
         <v>25.306234264320281</v>
       </c>
     </row>
@@ -12463,40 +12291,40 @@
       <c r="C98" s="6">
         <v>93.736000000000004</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="14">
         <v>23.971255769943866</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="10">
         <v>3739.9289999999996</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="10">
         <v>871.29399999999998</v>
       </c>
-      <c r="D99" s="17">
+      <c r="D99" s="15">
         <v>23.297073286685389</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="18"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12677,60 +12505,60 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B119" s="11">
+      <c r="B119" s="10">
         <v>1213.607</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="10">
         <v>848.19499999999994</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="18"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="16"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="19">
+      <c r="A123" s="17">
         <v>2024</v>
       </c>
-      <c r="B123" s="20">
+      <c r="B123" s="18">
         <v>391.03500000000003</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="19">
+      <c r="A124" s="17">
         <v>2023</v>
       </c>
-      <c r="B124" s="20">
+      <c r="B124" s="18">
         <v>383.28500000000003</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="19">
+      <c r="A125" s="17">
         <v>2022</v>
       </c>
-      <c r="B125" s="20">
+      <c r="B125" s="18">
         <v>394.32799999999997</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B126" s="15">
+      <c r="B126" s="13">
         <v>1168.6480000000001</v>
       </c>
     </row>
@@ -12752,8 +12580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D932B79-2DF3-49FF-9F55-A54C0B5AB0A5}">
   <dimension ref="B1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12770,24 +12598,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13016,34 +12844,34 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>3739.9289999999996</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>1080.2749999999999</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>1213.607</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13224,27 +13052,27 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>871.29399999999998</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <v>1080.2749999999999</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="27"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13259,266 +13087,266 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="25">
+      <c r="B60" s="22">
         <v>2024</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="23">
         <v>134.661</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="23">
         <v>391.03500000000003</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="23">
         <v>93.736000000000004</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="25">
+      <c r="B61" s="22">
         <v>2023</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="23">
         <v>125.82</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="23">
         <v>383.28500000000003</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="23">
         <v>96.995000000000005</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="25">
+      <c r="B62" s="22">
         <v>2022</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="23">
         <v>130.541</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="23">
         <v>394.32799999999997</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="23">
         <v>99.802999999999997</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="25">
+      <c r="B63" s="22">
         <v>2021</v>
       </c>
-      <c r="C63" s="26">
+      <c r="C63" s="23">
         <v>120.233</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="23">
         <v>365.81700000000001</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="23">
         <v>94.68</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="25">
+      <c r="B64" s="22">
         <v>2020</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="23">
         <v>77.343999999999994</v>
       </c>
-      <c r="D64" s="26">
+      <c r="D64" s="23">
         <v>274.51499999999999</v>
       </c>
-      <c r="E64" s="26">
+      <c r="E64" s="23">
         <v>57.411000000000001</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="25">
+      <c r="B65" s="22">
         <v>2019</v>
       </c>
-      <c r="C65" s="26">
+      <c r="C65" s="23">
         <v>76.477000000000004</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="23">
         <v>260.17399999999998</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E65" s="23">
         <v>55.256</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="25">
+      <c r="B66" s="22">
         <v>2018</v>
       </c>
-      <c r="C66" s="26">
+      <c r="C66" s="23">
         <v>81.801000000000002</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D66" s="23">
         <v>265.59500000000003</v>
       </c>
-      <c r="E66" s="26">
+      <c r="E66" s="23">
         <v>59.530999999999999</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="25">
+      <c r="B67" s="22">
         <v>2017</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="23">
         <v>71.501000000000005</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="23">
         <v>229.23400000000001</v>
       </c>
-      <c r="E67" s="26">
+      <c r="E67" s="23">
         <v>48.350999999999999</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="25">
+      <c r="B68" s="22">
         <v>2016</v>
       </c>
-      <c r="C68" s="26">
+      <c r="C68" s="23">
         <v>70.528999999999996</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D68" s="23">
         <v>215.63900000000001</v>
       </c>
-      <c r="E68" s="26">
+      <c r="E68" s="23">
         <v>45.686999999999998</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="25">
+      <c r="B69" s="22">
         <v>2015</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="23">
         <v>82.486999999999995</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="23">
         <v>233.715</v>
       </c>
-      <c r="E69" s="26">
+      <c r="E69" s="23">
         <v>53.393999999999998</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="25">
+      <c r="B70" s="22">
         <v>2014</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="23">
         <v>60.448999999999998</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="23">
         <v>182.79499999999999</v>
       </c>
-      <c r="E70" s="26">
+      <c r="E70" s="23">
         <v>39.51</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="25">
+      <c r="B71" s="22">
         <v>2013</v>
       </c>
-      <c r="C71" s="26">
+      <c r="C71" s="23">
         <v>55.756</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="23">
         <v>170.91</v>
       </c>
-      <c r="E71" s="26">
+      <c r="E71" s="23">
         <v>37.036999999999999</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="25">
+      <c r="B72" s="22">
         <v>2012</v>
       </c>
-      <c r="C72" s="26">
+      <c r="C72" s="23">
         <v>58.518000000000001</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D72" s="23">
         <v>156.50800000000001</v>
       </c>
-      <c r="E72" s="26">
+      <c r="E72" s="23">
         <v>41.732999999999997</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="25">
+      <c r="B73" s="22">
         <v>2011</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="23">
         <v>35.603999999999999</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="23">
         <v>108.249</v>
       </c>
-      <c r="E73" s="26">
+      <c r="E73" s="23">
         <v>25.922000000000001</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="25">
+      <c r="B74" s="22">
         <v>2010</v>
       </c>
-      <c r="C74" s="26">
+      <c r="C74" s="23">
         <v>19.411999999999999</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D74" s="23">
         <v>65.224999999999994</v>
       </c>
-      <c r="E74" s="26">
+      <c r="E74" s="23">
         <v>14.013</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="25">
+      <c r="B75" s="22">
         <v>2009</v>
       </c>
-      <c r="C75" s="26">
+      <c r="C75" s="23">
         <v>12.474</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="23">
         <v>42.905000000000001</v>
       </c>
-      <c r="E75" s="26">
+      <c r="E75" s="23">
         <v>8.2349999999999994</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B78" s="14" t="s">
+    <row r="78" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13699,13 +13527,13 @@
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="10">
         <v>848.19499999999994</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="10">
         <v>945.21499999999992</v>
       </c>
     </row>
@@ -13718,6 +13546,7 @@
     <mergeCell ref="B78:D78"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Arquivo Excel/Analise Apple.xlsx
+++ b/Arquivo Excel/Analise Apple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos GitHub\Cohort-Analysis-Apple-Sales\Arquivo Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0599764A-E637-4617-B7BF-9170D43AEB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D504E88-4778-4062-9782-FC2B28D62446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3326580-E837-47DC-8FE3-700E384DC15D}"/>
   </bookViews>
@@ -324,6 +324,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,397 +335,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="87">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
@@ -941,6 +558,184 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -7279,8 +7074,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47412640"/>
-        <c:axId val="47415552"/>
+        <c:axId val="812973887"/>
+        <c:axId val="812963903"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="47412640"/>
@@ -7387,6 +7182,64 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="812963903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812973887"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="812973887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="812963903"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -12038,6 +11891,432 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6778C877-11E3-4EDF-A254-291309AC6EE8}" name="Margem de Lucro (%) por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A82:D99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Margem de Lucro (%)" fld="16" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="9">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E6C06B-847E-4838-9560-233BCB068DED}" name="Ativos Totais vs. Passivos Totais" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A62:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Total Assets (millions)" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total Liabilities (millions)" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="18">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F76ADE55-BD12-4B1A-8AB0-9285366F9A8D}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A42:C59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -12151,20 +12430,20 @@
     <dataField name="Soma de Long Term Debt (millions)" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="0">
+    <format dxfId="26">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -12174,7 +12453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -12184,13 +12463,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="21">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="20">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="19">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12226,7 +12505,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25EA3F83-3197-4312-B9AF-DD6373F3FDB7}" name="Tabela dinâmica10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A129:D146" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -12344,10 +12623,10 @@
     <dataField name="Soma de EBITDA (millions)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="8">
+    <format dxfId="35">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -12358,10 +12637,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="33">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -12372,19 +12651,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="31">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="29">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -12433,730 +12712,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E34C066-EC88-4C7C-99B9-5BEBD2A8F13E}" name=" Receita Anual Total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption=" Receita Anual Total">
-  <location ref="A2:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="13">
-    <format dxfId="53">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A122:B126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="17">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="11">
-    <format dxfId="63">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="61">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6778C877-11E3-4EDF-A254-291309AC6EE8}" name="Margem de Lucro (%) por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A82:D99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Margem de Lucro (%)" fld="16" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="73">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="72">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="71">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="70">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="69">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="68">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="66">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="64">
-      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E6C06B-847E-4838-9560-233BCB068DED}" name="Ativos Totais vs. Passivos Totais" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A62:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Total Assets (millions)" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Total Liabilities (millions)" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="82">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="81">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="80">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="79">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="78">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="77">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="76">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="75">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="74">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7019D5E9-8668-481F-87CE-AA3E58A3D51A}" name="Lucro Operacional e Lucro Líquido por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A22:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -13270,10 +12826,10 @@
     <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="99">
+    <format dxfId="44">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -13283,10 +12839,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="42">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -13296,19 +12852,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="40">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="38">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -13324,8 +12880,305 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E34C066-EC88-4C7C-99B9-5BEBD2A8F13E}" name=" Receita Anual Total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption=" Receita Anual Total">
+  <location ref="A2:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="13">
+    <format dxfId="57">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A122:B126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="11">
+    <format dxfId="68">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B477B07C-A94D-462E-869B-6491F373599D}" name="Tabela1" displayName="Tabela1" ref="A1:P17" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B477B07C-A94D-462E-869B-6491F373599D}" name="Tabela1" displayName="Tabela1" ref="A1:P17" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:P17" xr:uid="{B477B07C-A94D-462E-869B-6491F373599D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -13345,22 +13198,22 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{2CF2503D-5FBB-4858-9B38-38FCC70E64AB}" name="year" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{8B4442B8-2472-4C6B-93D5-6E1BEE5A5729}" name="EBITDA (millions)" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{4CF6945F-E27D-47E0-8164-1E435A4665CC}" name="Revenue (millions)" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{D501E4C1-16E2-48F4-A898-1DA11CA8FA92}" name="Gross Profit (millions)" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{3539C88D-B891-45E6-8726-32926FBA8282}" name="Op Income (millions)" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{E7B95EEB-F368-4331-A831-6BC23B467607}" name="Net Income (millions)" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{DA644284-181C-4B22-81C1-441D2E957BEB}" name="EPS" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{9AE649D6-41B0-4FF1-A871-85B1AADF9C12}" name="Shares Outstanding" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{9188A03A-FA02-4D36-8C8B-7BAD4BC1856B}" name="Year Close Price" dataDxfId="109"/>
-    <tableColumn id="10" xr3:uid="{2421FE63-175F-4D2D-9F96-A40A87CE88D5}" name="Total Assets (millions)" dataDxfId="108"/>
-    <tableColumn id="11" xr3:uid="{B19952D6-57A8-440D-9E7E-A53B1F3D95E8}" name="Cash on Hand (millions)" dataDxfId="107"/>
-    <tableColumn id="12" xr3:uid="{A7D5B385-43E9-4799-8D1B-FA887D14EDC8}" name="Long Term Debt (millions)" dataDxfId="106"/>
-    <tableColumn id="13" xr3:uid="{AA4D0B36-930C-40F2-9203-4B8492060C4D}" name="Total Liabilities (millions)" dataDxfId="105"/>
-    <tableColumn id="14" xr3:uid="{A6C4A35F-11B9-46AE-88B9-86D08F5901A8}" name="Gross Margin" dataDxfId="104" dataCellStyle="Porcentagem"/>
-    <tableColumn id="15" xr3:uid="{3A1AA4F7-5A5A-49D4-9F9D-442C4B528158}" name="PE ratio" dataDxfId="103"/>
-    <tableColumn id="16" xr3:uid="{611FA5AB-D08A-4255-97B8-63E7ADBE8452}" name="Employees" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{2CF2503D-5FBB-4858-9B38-38FCC70E64AB}" name="year" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{8B4442B8-2472-4C6B-93D5-6E1BEE5A5729}" name="EBITDA (millions)" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{4CF6945F-E27D-47E0-8164-1E435A4665CC}" name="Revenue (millions)" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{D501E4C1-16E2-48F4-A898-1DA11CA8FA92}" name="Gross Profit (millions)" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{3539C88D-B891-45E6-8726-32926FBA8282}" name="Op Income (millions)" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{E7B95EEB-F368-4331-A831-6BC23B467607}" name="Net Income (millions)" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{DA644284-181C-4B22-81C1-441D2E957BEB}" name="EPS" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{9AE649D6-41B0-4FF1-A871-85B1AADF9C12}" name="Shares Outstanding" dataDxfId="77"/>
+    <tableColumn id="9" xr3:uid="{9188A03A-FA02-4D36-8C8B-7BAD4BC1856B}" name="Year Close Price" dataDxfId="76"/>
+    <tableColumn id="10" xr3:uid="{2421FE63-175F-4D2D-9F96-A40A87CE88D5}" name="Total Assets (millions)" dataDxfId="75"/>
+    <tableColumn id="11" xr3:uid="{B19952D6-57A8-440D-9E7E-A53B1F3D95E8}" name="Cash on Hand (millions)" dataDxfId="74"/>
+    <tableColumn id="12" xr3:uid="{A7D5B385-43E9-4799-8D1B-FA887D14EDC8}" name="Long Term Debt (millions)" dataDxfId="73"/>
+    <tableColumn id="13" xr3:uid="{AA4D0B36-930C-40F2-9203-4B8492060C4D}" name="Total Liabilities (millions)" dataDxfId="72"/>
+    <tableColumn id="14" xr3:uid="{A6C4A35F-11B9-46AE-88B9-86D08F5901A8}" name="Gross Margin" dataDxfId="71" dataCellStyle="Porcentagem"/>
+    <tableColumn id="15" xr3:uid="{3A1AA4F7-5A5A-49D4-9F9D-442C4B528158}" name="PE ratio" dataDxfId="70"/>
+    <tableColumn id="16" xr3:uid="{611FA5AB-D08A-4255-97B8-63E7ADBE8452}" name="Employees" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14571,10 +14424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -14721,11 +14574,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -14926,11 +14779,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -15131,11 +14984,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
@@ -15336,12 +15189,12 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
@@ -15596,12 +15449,12 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
@@ -15842,10 +15695,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="25"/>
+      <c r="B121" s="27"/>
       <c r="C121" s="15"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -15860,7 +15713,7 @@
       <c r="A123" s="16">
         <v>2024</v>
       </c>
-      <c r="B123" s="26">
+      <c r="B123" s="23">
         <v>391.03500000000003</v>
       </c>
     </row>
@@ -15868,7 +15721,7 @@
       <c r="A124" s="16">
         <v>2023</v>
       </c>
-      <c r="B124" s="26">
+      <c r="B124" s="23">
         <v>383.28500000000003</v>
       </c>
     </row>
@@ -15876,7 +15729,7 @@
       <c r="A125" s="16">
         <v>2022</v>
       </c>
-      <c r="B125" s="26">
+      <c r="B125" s="23">
         <v>394.32799999999997</v>
       </c>
     </row>
@@ -15889,12 +15742,12 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
@@ -16149,10 +16002,10 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A148" s="23" t="s">
+      <c r="A148" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="23"/>
+      <c r="B148" s="25"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
@@ -16174,15 +16027,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A81:D81"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A148:B148"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A81:D81"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -16194,7 +16047,7 @@
   <dimension ref="B21:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16211,9 +16064,9 @@
   </cols>
   <sheetData>
     <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Arquivo Excel/Analise Apple.xlsx
+++ b/Arquivo Excel/Analise Apple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos GitHub\Cohort-Analysis-Apple-Sales\Arquivo Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D504E88-4778-4062-9782-FC2B28D62446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5B5719-04F6-4B7D-BCF9-A540C717156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3326580-E837-47DC-8FE3-700E384DC15D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Evolução dos Indicadores Financeiros ao Longo dos Anos</t>
+  </si>
+  <si>
+    <t>Participação de Ativos em Relação aos Passivos</t>
   </si>
 </sst>
 </file>
@@ -327,13 +330,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -341,218 +344,6 @@
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="87">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
@@ -679,6 +470,115 @@
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -741,6 +641,109 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -7235,6 +7238,1255 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="812963903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analise Apple.xlsx]Tabelas Dinamicas!Ativos Totais vs. Passivos Totais</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Participação de Ativos em Relação aos Passivos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas Dinamicas'!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Total Assets (millions)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas Dinamicas'!$A$63:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas Dinamicas'!$B$63:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>47.500999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.183000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.06399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>290.34500000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.68599999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>375.31900000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338.51600000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>323.88799999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>351.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>352.755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>352.58300000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>364.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D1C-4A79-977D-682F721D88BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="970148528"/>
+        <c:axId val="970141040"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas Dinamicas'!$C$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Total Liabilities (millions)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas Dinamicas'!$A$63:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas Dinamicas'!$C$63:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>15.861000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.391999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.853999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.450999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.43700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241.27199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>258.57799999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>248.02799999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>258.54899999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>287.91199999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>302.08300000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>290.43700000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>308.02999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D1C-4A79-977D-682F721D88BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="464960864"/>
+        <c:axId val="464955456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="970148528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="970141040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="970141040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="970148528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="464955456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464960864"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="464960864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="464955456"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7629,6 +8881,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -11162,6 +12454,502 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11440,6 +13228,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1250AC3B-3AE6-41E8-8075-463A50A92128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11891,6 +13717,331 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7019D5E9-8668-481F-87CE-AA3E58A3D51A}" name="Lucro Operacional e Lucro Líquido por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A22:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Op Income (millions)" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="8">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E34C066-EC88-4C7C-99B9-5BEBD2A8F13E}" name=" Receita Anual Total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption=" Receita Anual Total">
+  <location ref="A2:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="13">
+    <format dxfId="21">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6778C877-11E3-4EDF-A254-291309AC6EE8}" name="Margem de Lucro (%) por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A82:D99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -12008,10 +14159,10 @@
     <dataField name="Soma de Margem de Lucro (%)" fld="16" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="9">
+    <format dxfId="31">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12020,7 +14171,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -12031,7 +14182,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -12042,19 +14193,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="27">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="25">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -12065,7 +14216,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="22">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -12144,8 +14295,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E6C06B-847E-4838-9560-233BCB068DED}" name="Ativos Totais vs. Passivos Totais" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E6C06B-847E-4838-9560-233BCB068DED}" name="Ativos Totais vs. Passivos Totais" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A62:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
@@ -12258,10 +14409,10 @@
     <dataField name="Soma de Total Liabilities (millions)" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="18">
+    <format dxfId="40">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -12271,7 +14422,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -12281,29 +14432,67 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="37">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="35">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="32">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -12316,7 +14505,147 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A122:B126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="11">
+    <format dxfId="51">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F76ADE55-BD12-4B1A-8AB0-9285366F9A8D}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A42:C59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -12430,20 +14759,20 @@
     <dataField name="Soma de Long Term Debt (millions)" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="26">
+    <format dxfId="59">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="57">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -12453,7 +14782,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -12463,13 +14792,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="54">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="53">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="52">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12505,7 +14834,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25EA3F83-3197-4312-B9AF-DD6373F3FDB7}" name="Tabela dinâmica10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A129:D146" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -12623,10 +14952,10 @@
     <dataField name="Soma de EBITDA (millions)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="35">
+    <format dxfId="68">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -12637,10 +14966,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="66">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -12651,19 +14980,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="64">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="62">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -12695,471 +15024,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7019D5E9-8668-481F-87CE-AA3E58A3D51A}" name="Lucro Operacional e Lucro Líquido por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A22:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Op Income (millions)" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="44">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="40">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E34C066-EC88-4C7C-99B9-5BEBD2A8F13E}" name=" Receita Anual Total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption=" Receita Anual Total">
-  <location ref="A2:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="13">
-    <format dxfId="57">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A122:B126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="17">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="11">
-    <format dxfId="68">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="66">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="61">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -14405,8 +16269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44B80FF-A548-4DD6-A700-74125852E534}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:D81"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14424,10 +16288,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -14574,11 +16438,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -14779,11 +16643,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -14984,11 +16848,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
@@ -15189,12 +17053,12 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
@@ -15449,12 +17313,12 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
@@ -15695,10 +17559,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="27" t="s">
+      <c r="A121" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="27"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="15"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -15742,12 +17606,12 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
@@ -16002,10 +17866,10 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="25"/>
+      <c r="B148" s="26"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
@@ -16027,15 +17891,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -16046,8 +17910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D932B79-2DF3-49FF-9F55-A54C0B5AB0A5}">
   <dimension ref="B21:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Arquivo Excel/Analise Apple.xlsx
+++ b/Arquivo Excel/Analise Apple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos GitHub\Cohort-Analysis-Apple-Sales\Arquivo Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5B5719-04F6-4B7D-BCF9-A540C717156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F394616F-1C59-4D44-B871-94348446522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3326580-E837-47DC-8FE3-700E384DC15D}"/>
   </bookViews>
@@ -330,13 +330,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -344,237 +344,6 @@
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="87">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
@@ -744,6 +513,237 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -7192,6 +7192,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Margem</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de lucro %</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -8335,6 +8393,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>ano</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8399,6 +8510,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>ativos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8440,6 +8604,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Passivos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -13717,6 +13934,335 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A122:B126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="11">
+    <format dxfId="10">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F76ADE55-BD12-4B1A-8AB0-9285366F9A8D}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A42:C59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Cash on Hand (millions)" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Long Term Debt (millions)" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="18">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7019D5E9-8668-481F-87CE-AA3E58A3D51A}" name="Lucro Operacional e Lucro Líquido por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A22:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -13830,10 +14376,10 @@
     <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="8">
+    <format dxfId="27">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -13843,10 +14389,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="25">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -13856,19 +14402,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="23">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="21">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -13884,7 +14430,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E34C066-EC88-4C7C-99B9-5BEBD2A8F13E}" name=" Receita Anual Total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption=" Receita Anual Total">
   <location ref="A2:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -13989,43 +14535,43 @@
     <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="21">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="39">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="37">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="35">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="33">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="31">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="29">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14041,800 +14587,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6778C877-11E3-4EDF-A254-291309AC6EE8}" name="Margem de Lucro (%) por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A82:D99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Margem de Lucro (%)" fld="16" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="31">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
-      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E6C06B-847E-4838-9560-233BCB068DED}" name="Ativos Totais vs. Passivos Totais" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A62:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Total Assets (millions)" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Total Liabilities (millions)" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="40">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A122:B126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="17">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="11">
-    <format dxfId="51">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="45">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F76ADE55-BD12-4B1A-8AB0-9285366F9A8D}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A42:C59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Cash on Hand (millions)" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Long Term Debt (millions)" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="59">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="56">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="54">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25EA3F83-3197-4312-B9AF-DD6373F3FDB7}" name="Tabela dinâmica10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A129:D146" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -14952,10 +14705,10 @@
     <dataField name="Soma de EBITDA (millions)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="68">
+    <format dxfId="49">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -14966,10 +14719,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="47">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -14980,19 +14733,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="45">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="43">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -15024,6 +14777,470 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6778C877-11E3-4EDF-A254-291309AC6EE8}" name="Margem de Lucro (%) por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A82:D99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Margem de Lucro (%)" fld="16" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="59">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E6C06B-847E-4838-9560-233BCB068DED}" name="Ativos Totais vs. Passivos Totais" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A62:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Total Assets (millions)" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total Liabilities (millions)" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="68">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -16288,10 +16505,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -16438,11 +16655,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -16643,11 +16860,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -16848,11 +17065,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
@@ -17053,12 +17270,12 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
@@ -17313,12 +17530,12 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
@@ -17559,10 +17776,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="25"/>
+      <c r="B121" s="27"/>
       <c r="C121" s="15"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -17606,12 +17823,12 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="26" t="s">
+      <c r="A128" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
@@ -17866,10 +18083,10 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A148" s="26" t="s">
+      <c r="A148" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="26"/>
+      <c r="B148" s="25"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
@@ -17891,15 +18108,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A128:D128"/>
     <mergeCell ref="A148:B148"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A128:D128"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -17910,8 +18127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D932B79-2DF3-49FF-9F55-A54C0B5AB0A5}">
   <dimension ref="B21:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Arquivo Excel/Analise Apple.xlsx
+++ b/Arquivo Excel/Analise Apple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos GitHub\Cohort-Analysis-Apple-Sales\Arquivo Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F394616F-1C59-4D44-B871-94348446522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7897A18-1D9B-46B6-8F89-19BDD33FCC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3326580-E837-47DC-8FE3-700E384DC15D}"/>
+    <workbookView xWindow="17745" yWindow="4125" windowWidth="21525" windowHeight="11385" activeTab="1" xr2:uid="{E3326580-E837-47DC-8FE3-700E384DC15D}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>year</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Soma de Revenue (millions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Receita Anual Total</t>
   </si>
   <si>
     <t>Soma de Op Income (millions)</t>
@@ -277,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,10 +295,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -330,13 +323,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -344,6 +337,113 @@
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="87">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
@@ -451,6 +551,59 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -587,166 +740,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1179,7 +1172,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$B$129</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1229,7 +1222,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$130:$A$146</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$110:$A$126</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1285,7 +1278,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$B$130:$B$146</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$110:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -1351,7 +1344,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$C$129</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1401,7 +1394,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$130:$A$146</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$110:$A$126</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1457,7 +1450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$C$130:$C$146</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$110:$C$126</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -1538,7 +1531,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$D$129</c:f>
+              <c:f>'Tabelas Dinamicas'!$D$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1567,7 +1560,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$130:$A$146</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$110:$A$126</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1623,7 +1616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$D$130:$D$146</c:f>
+              <c:f>'Tabelas Dinamicas'!$D$110:$D$126</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -3020,7 +3013,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$149:$B$149</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$129:$B$129</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3034,7 +3027,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$A$150:$B$150</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$130:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="2"/>
@@ -3236,7 +3229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$B$102</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3272,7 +3265,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$A$103:$A$118</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$83:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3329,7 +3322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$B$103:$B$118</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$83:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -3395,7 +3388,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$C$102</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3431,7 +3424,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$A$103:$A$118</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$83:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3488,7 +3481,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$C$103:$C$118</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$83:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -3554,7 +3547,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$D$102</c:f>
+              <c:f>'Tabelas Dinamicas'!$D$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3590,7 +3583,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$A$103:$A$118</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$83:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3647,7 +3640,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$D$103:$D$118</c:f>
+              <c:f>'Tabelas Dinamicas'!$D$83:$D$98</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -4195,7 +4188,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$B$42</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4245,7 +4238,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$43:$A$59</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$23:$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -4301,7 +4294,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$B$43:$B$59</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$23:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -4367,7 +4360,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$C$42</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4417,7 +4410,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$43:$A$59</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$23:$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -4473,7 +4466,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$C$43:$C$59</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$23:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -5154,7 +5147,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$B$122</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5204,7 +5197,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$123:$A$126</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$103:$A$106</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5221,7 +5214,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$B$123:$B$126</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$103:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -6518,7 +6511,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$B$82</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6568,7 +6561,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$83:$A$99</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$63:$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -6624,7 +6617,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$B$83:$B$99</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$63:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -6690,7 +6683,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$C$82</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6740,7 +6733,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$83:$A$99</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$63:$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -6796,7 +6789,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$C$83:$C$99</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$63:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -6878,7 +6871,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$D$82</c:f>
+              <c:f>'Tabelas Dinamicas'!$D$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6949,7 +6942,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$83:$A$99</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$63:$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -7005,7 +6998,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$D$83:$D$99</c:f>
+              <c:f>'Tabelas Dinamicas'!$D$63:$D$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8039,7 +8032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$B$62</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8089,7 +8082,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$63:$A$79</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$43:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -8145,7 +8138,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$B$63:$B$79</c:f>
+              <c:f>'Tabelas Dinamicas'!$B$43:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -8226,7 +8219,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$C$62</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8255,7 +8248,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas Dinamicas'!$A$63:$A$79</c:f>
+              <c:f>'Tabelas Dinamicas'!$A$43:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -8311,7 +8304,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas Dinamicas'!$C$63:$C$79</c:f>
+              <c:f>'Tabelas Dinamicas'!$C$43:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="16"/>
@@ -13934,662 +13927,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A122:B126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="17">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="11">
-    <format dxfId="10">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F76ADE55-BD12-4B1A-8AB0-9285366F9A8D}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A42:C59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Cash on Hand (millions)" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Long Term Debt (millions)" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="18">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7019D5E9-8668-481F-87CE-AA3E58A3D51A}" name="Lucro Operacional e Lucro Líquido por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A22:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de Op Income (millions)" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="27">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E34C066-EC88-4C7C-99B9-5BEBD2A8F13E}" name=" Receita Anual Total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption=" Receita Anual Total">
-  <location ref="A2:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="13">
-    <format dxfId="40">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25EA3F83-3197-4312-B9AF-DD6373F3FDB7}" name="Tabela dinâmica10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A129:D146" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A109:D126" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
       <items count="17">
@@ -14705,10 +14044,10 @@
     <dataField name="Soma de EBITDA (millions)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="49">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -14719,10 +14058,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -14733,19 +14072,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="4">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -14794,9 +14133,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6778C877-11E3-4EDF-A254-291309AC6EE8}" name="Margem de Lucro (%) por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="A82:D99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A62:D79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
       <items count="17">
@@ -14912,10 +14251,10 @@
     <dataField name="Soma de Margem de Lucro (%)" fld="16" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="59">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -14924,7 +14263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -14935,7 +14274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -14946,19 +14285,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="14">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="12">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -14969,7 +14308,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="9">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -15048,9 +14387,338 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01CAC817-A7D6-4076-9967-079912467819}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A102:B106" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Revenue (millions)" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="11">
+    <format dxfId="29">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F76ADE55-BD12-4B1A-8AB0-9285366F9A8D}" name="Tabela dinâmica15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A22:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Cash on Hand (millions)" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Long Term Debt (millions)" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="37">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E6C06B-847E-4838-9560-233BCB068DED}" name="Ativos Totais vs. Passivos Totais" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A62:C79" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A42:C59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
       <items count="17">
@@ -15162,10 +14830,10 @@
     <dataField name="Soma de Total Liabilities (millions)" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="68">
+    <format dxfId="46">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -15175,7 +14843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -15185,26 +14853,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="43">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="41">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="38">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15246,6 +14914,174 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7019D5E9-8668-481F-87CE-AA3E58A3D51A}" name="Lucro Operacional e Lucro Líquido por Ano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A2:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Op Income (millions)" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Net Income (millions)" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="55">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16484,10 +16320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44B80FF-A548-4DD6-A700-74125852E534}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16504,130 +16340,176 @@
     <col min="10" max="10" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2009</v>
       </c>
       <c r="B3" s="5">
-        <v>42.905000000000001</v>
+        <v>11.74</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8.2349999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2010</v>
       </c>
       <c r="B4" s="5">
-        <v>65.224999999999994</v>
+        <v>18.385000000000002</v>
+      </c>
+      <c r="C4" s="5">
+        <v>14.013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2011</v>
       </c>
       <c r="B5" s="5">
-        <v>108.249</v>
+        <v>33.79</v>
+      </c>
+      <c r="C5" s="5">
+        <v>25.922000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2012</v>
       </c>
       <c r="B6" s="5">
-        <v>156.50800000000001</v>
+        <v>55.241</v>
+      </c>
+      <c r="C6" s="5">
+        <v>41.732999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2013</v>
       </c>
       <c r="B7" s="5">
-        <v>170.91</v>
+        <v>48.999000000000002</v>
+      </c>
+      <c r="C7" s="5">
+        <v>37.036999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2014</v>
       </c>
       <c r="B8" s="5">
-        <v>182.79499999999999</v>
+        <v>52.503</v>
+      </c>
+      <c r="C8" s="5">
+        <v>39.51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2015</v>
       </c>
       <c r="B9" s="5">
-        <v>233.715</v>
+        <v>71.23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>53.393999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2016</v>
       </c>
       <c r="B10" s="5">
-        <v>215.63900000000001</v>
+        <v>60.024000000000001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45.686999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2017</v>
       </c>
       <c r="B11" s="5">
-        <v>229.23400000000001</v>
+        <v>61.344000000000001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>48.350999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2018</v>
       </c>
       <c r="B12" s="5">
-        <v>265.59500000000003</v>
+        <v>70.897999999999996</v>
+      </c>
+      <c r="C12" s="5">
+        <v>59.530999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2019</v>
       </c>
       <c r="B13" s="5">
-        <v>260.17399999999998</v>
+        <v>63.93</v>
+      </c>
+      <c r="C13" s="5">
+        <v>55.256</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2020</v>
       </c>
       <c r="B14" s="5">
-        <v>274.51499999999999</v>
+        <v>66.287999999999997</v>
+      </c>
+      <c r="C14" s="5">
+        <v>57.411000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
       <c r="B15" s="5">
-        <v>365.81700000000001</v>
+        <v>108.949</v>
+      </c>
+      <c r="C15" s="5">
+        <v>94.68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2022</v>
       </c>
       <c r="B16" s="5">
-        <v>394.32799999999997</v>
+        <v>119.437</v>
+      </c>
+      <c r="C16" s="5">
+        <v>99.802999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -16635,7 +16517,10 @@
         <v>2023</v>
       </c>
       <c r="B17" s="5">
-        <v>383.28500000000003</v>
+        <v>114.301</v>
+      </c>
+      <c r="C17" s="5">
+        <v>96.995000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -16643,33 +16528,39 @@
         <v>2024</v>
       </c>
       <c r="B18" s="5">
-        <v>391.03500000000003</v>
+        <v>123.21599999999999</v>
+      </c>
+      <c r="C18" s="5">
+        <v>93.736000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
-        <v>3739.9289999999996</v>
+      <c r="B19" s="9">
+        <v>1080.2749999999999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>871.29399999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>20</v>
+      <c r="B22" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -16677,10 +16568,10 @@
         <v>2009</v>
       </c>
       <c r="B23" s="5">
-        <v>11.74</v>
+        <v>23.463999999999999</v>
       </c>
       <c r="C23" s="5">
-        <v>8.2349999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -16688,10 +16579,10 @@
         <v>2010</v>
       </c>
       <c r="B24" s="5">
-        <v>18.385000000000002</v>
+        <v>25.62</v>
       </c>
       <c r="C24" s="5">
-        <v>14.013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -16699,10 +16590,10 @@
         <v>2011</v>
       </c>
       <c r="B25" s="5">
-        <v>33.79</v>
+        <v>25.952000000000002</v>
       </c>
       <c r="C25" s="5">
-        <v>25.922000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -16710,10 +16601,10 @@
         <v>2012</v>
       </c>
       <c r="B26" s="5">
-        <v>55.241</v>
+        <v>29.129000000000001</v>
       </c>
       <c r="C26" s="5">
-        <v>41.732999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -16721,10 +16612,10 @@
         <v>2013</v>
       </c>
       <c r="B27" s="5">
-        <v>48.999000000000002</v>
+        <v>40.545999999999999</v>
       </c>
       <c r="C27" s="5">
-        <v>37.036999999999999</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -16732,10 +16623,10 @@
         <v>2014</v>
       </c>
       <c r="B28" s="5">
-        <v>52.503</v>
+        <v>25.077000000000002</v>
       </c>
       <c r="C28" s="5">
-        <v>39.51</v>
+        <v>28.986999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -16743,10 +16634,10 @@
         <v>2015</v>
       </c>
       <c r="B29" s="5">
-        <v>71.23</v>
+        <v>41.600999999999999</v>
       </c>
       <c r="C29" s="5">
-        <v>53.393999999999998</v>
+        <v>53.329000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -16754,10 +16645,10 @@
         <v>2016</v>
       </c>
       <c r="B30" s="5">
-        <v>60.024000000000001</v>
+        <v>67.155000000000001</v>
       </c>
       <c r="C30" s="5">
-        <v>45.686999999999998</v>
+        <v>75.427000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -16765,10 +16656,10 @@
         <v>2017</v>
       </c>
       <c r="B31" s="5">
-        <v>61.344000000000001</v>
+        <v>74.180999999999997</v>
       </c>
       <c r="C31" s="5">
-        <v>48.350999999999999</v>
+        <v>97.206999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -16776,10 +16667,10 @@
         <v>2018</v>
       </c>
       <c r="B32" s="5">
-        <v>70.897999999999996</v>
+        <v>66.301000000000002</v>
       </c>
       <c r="C32" s="5">
-        <v>59.530999999999999</v>
+        <v>93.734999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -16787,10 +16678,10 @@
         <v>2019</v>
       </c>
       <c r="B33" s="5">
-        <v>63.93</v>
+        <v>100.557</v>
       </c>
       <c r="C33" s="5">
-        <v>55.256</v>
+        <v>91.807000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -16798,10 +16689,10 @@
         <v>2020</v>
       </c>
       <c r="B34" s="5">
-        <v>66.287999999999997</v>
+        <v>90.942999999999998</v>
       </c>
       <c r="C34" s="5">
-        <v>57.411000000000001</v>
+        <v>98.667000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -16809,10 +16700,10 @@
         <v>2021</v>
       </c>
       <c r="B35" s="5">
-        <v>108.949</v>
+        <v>62.639000000000003</v>
       </c>
       <c r="C35" s="5">
-        <v>94.68</v>
+        <v>109.10599999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -16820,10 +16711,10 @@
         <v>2022</v>
       </c>
       <c r="B36" s="5">
-        <v>119.437</v>
+        <v>48.304000000000002</v>
       </c>
       <c r="C36" s="5">
-        <v>99.802999999999997</v>
+        <v>98.959000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -16831,10 +16722,10 @@
         <v>2023</v>
       </c>
       <c r="B37" s="5">
-        <v>114.301</v>
+        <v>61.555</v>
       </c>
       <c r="C37" s="5">
-        <v>96.995000000000005</v>
+        <v>95.281000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -16842,10 +16733,10 @@
         <v>2024</v>
       </c>
       <c r="B38" s="5">
-        <v>123.21599999999999</v>
+        <v>65.171000000000006</v>
       </c>
       <c r="C38" s="5">
-        <v>93.736000000000004</v>
+        <v>85.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -16853,28 +16744,28 @@
         <v>17</v>
       </c>
       <c r="B39" s="9">
-        <v>1080.2749999999999</v>
+        <v>848.19499999999994</v>
       </c>
       <c r="C39" s="9">
-        <v>871.29399999999998</v>
+        <v>945.21499999999992</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>23</v>
+      <c r="B42" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -16882,10 +16773,10 @@
         <v>2009</v>
       </c>
       <c r="B43" s="5">
-        <v>23.463999999999999</v>
+        <v>47.500999999999998</v>
       </c>
       <c r="C43" s="5">
-        <v>0</v>
+        <v>15.861000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -16893,10 +16784,10 @@
         <v>2010</v>
       </c>
       <c r="B44" s="5">
-        <v>25.62</v>
+        <v>75.183000000000007</v>
       </c>
       <c r="C44" s="5">
-        <v>0</v>
+        <v>27.391999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -16904,10 +16795,10 @@
         <v>2011</v>
       </c>
       <c r="B45" s="5">
-        <v>25.952000000000002</v>
+        <v>116.371</v>
       </c>
       <c r="C45" s="5">
-        <v>0</v>
+        <v>39.756</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -16915,10 +16806,10 @@
         <v>2012</v>
       </c>
       <c r="B46" s="5">
-        <v>29.129000000000001</v>
+        <v>176.06399999999999</v>
       </c>
       <c r="C46" s="5">
-        <v>0</v>
+        <v>57.853999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -16926,10 +16817,10 @@
         <v>2013</v>
       </c>
       <c r="B47" s="5">
-        <v>40.545999999999999</v>
+        <v>207</v>
       </c>
       <c r="C47" s="5">
-        <v>16.96</v>
+        <v>83.450999999999993</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -16937,1189 +16828,983 @@
         <v>2014</v>
       </c>
       <c r="B48" s="5">
-        <v>25.077000000000002</v>
+        <v>231.839</v>
       </c>
       <c r="C48" s="5">
-        <v>28.986999999999998</v>
+        <v>120.292</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2015</v>
       </c>
       <c r="B49" s="5">
-        <v>41.600999999999999</v>
+        <v>290.34500000000003</v>
       </c>
       <c r="C49" s="5">
-        <v>53.329000000000001</v>
+        <v>170.99</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2016</v>
       </c>
       <c r="B50" s="5">
-        <v>67.155000000000001</v>
+        <v>321.68599999999998</v>
       </c>
       <c r="C50" s="5">
-        <v>75.427000000000007</v>
+        <v>193.43700000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2017</v>
       </c>
       <c r="B51" s="5">
-        <v>74.180999999999997</v>
+        <v>375.31900000000002</v>
       </c>
       <c r="C51" s="5">
-        <v>97.206999999999994</v>
+        <v>241.27199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2018</v>
       </c>
       <c r="B52" s="5">
-        <v>66.301000000000002</v>
+        <v>365.72500000000002</v>
       </c>
       <c r="C52" s="5">
-        <v>93.734999999999999</v>
+        <v>258.57799999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2019</v>
       </c>
       <c r="B53" s="5">
-        <v>100.557</v>
+        <v>338.51600000000002</v>
       </c>
       <c r="C53" s="5">
-        <v>91.807000000000002</v>
+        <v>248.02799999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2020</v>
       </c>
       <c r="B54" s="5">
-        <v>90.942999999999998</v>
+        <v>323.88799999999998</v>
       </c>
       <c r="C54" s="5">
-        <v>98.667000000000002</v>
+        <v>258.54899999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2021</v>
       </c>
       <c r="B55" s="5">
-        <v>62.639000000000003</v>
+        <v>351.00200000000001</v>
       </c>
       <c r="C55" s="5">
-        <v>109.10599999999999</v>
+        <v>287.91199999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2022</v>
       </c>
       <c r="B56" s="5">
-        <v>48.304000000000002</v>
+        <v>352.755</v>
       </c>
       <c r="C56" s="5">
-        <v>98.959000000000003</v>
+        <v>302.08300000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2023</v>
       </c>
       <c r="B57" s="5">
-        <v>61.555</v>
+        <v>352.58300000000003</v>
       </c>
       <c r="C57" s="5">
-        <v>95.281000000000006</v>
+        <v>290.43700000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2024</v>
       </c>
       <c r="B58" s="5">
-        <v>65.171000000000006</v>
+        <v>364.98</v>
       </c>
       <c r="C58" s="5">
-        <v>85.75</v>
+        <v>308.02999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="9">
-        <v>848.19499999999994</v>
+        <v>4290.7569999999996</v>
       </c>
       <c r="C59" s="9">
-        <v>945.21499999999992</v>
+        <v>2903.9219999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
+    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2009</v>
       </c>
       <c r="B63" s="5">
-        <v>47.500999999999998</v>
+        <v>42.905000000000001</v>
       </c>
       <c r="C63" s="5">
-        <v>15.861000000000001</v>
+        <v>8.2349999999999994</v>
+      </c>
+      <c r="D63" s="11">
+        <v>19.193567183311966</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2010</v>
       </c>
       <c r="B64" s="5">
-        <v>75.183000000000007</v>
+        <v>65.224999999999994</v>
       </c>
       <c r="C64" s="5">
-        <v>27.391999999999999</v>
+        <v>14.013</v>
+      </c>
+      <c r="D64" s="11">
+        <v>21.484093522422384</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2011</v>
       </c>
       <c r="B65" s="5">
-        <v>116.371</v>
+        <v>108.249</v>
       </c>
       <c r="C65" s="5">
-        <v>39.756</v>
+        <v>25.922000000000001</v>
+      </c>
+      <c r="D65" s="11">
+        <v>23.946641539413761</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2012</v>
       </c>
       <c r="B66" s="5">
-        <v>176.06399999999999</v>
+        <v>156.50800000000001</v>
       </c>
       <c r="C66" s="5">
-        <v>57.853999999999999</v>
+        <v>41.732999999999997</v>
+      </c>
+      <c r="D66" s="11">
+        <v>26.665090602397317</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2013</v>
       </c>
       <c r="B67" s="5">
-        <v>207</v>
+        <v>170.91</v>
       </c>
       <c r="C67" s="5">
-        <v>83.450999999999993</v>
+        <v>37.036999999999999</v>
+      </c>
+      <c r="D67" s="11">
+        <v>21.670469837926394</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2014</v>
       </c>
       <c r="B68" s="5">
-        <v>231.839</v>
+        <v>182.79499999999999</v>
       </c>
       <c r="C68" s="5">
-        <v>120.292</v>
+        <v>39.51</v>
+      </c>
+      <c r="D68" s="11">
+        <v>21.614376760852323</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2015</v>
       </c>
       <c r="B69" s="5">
-        <v>290.34500000000003</v>
+        <v>233.715</v>
       </c>
       <c r="C69" s="5">
-        <v>170.99</v>
+        <v>53.393999999999998</v>
+      </c>
+      <c r="D69" s="11">
+        <v>22.845773698735638</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2016</v>
       </c>
       <c r="B70" s="5">
-        <v>321.68599999999998</v>
+        <v>215.63900000000001</v>
       </c>
       <c r="C70" s="5">
-        <v>193.43700000000001</v>
+        <v>45.686999999999998</v>
+      </c>
+      <c r="D70" s="11">
+        <v>21.186798306428798</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>2017</v>
       </c>
       <c r="B71" s="5">
-        <v>375.31900000000002</v>
+        <v>229.23400000000001</v>
       </c>
       <c r="C71" s="5">
-        <v>241.27199999999999</v>
+        <v>48.350999999999999</v>
+      </c>
+      <c r="D71" s="11">
+        <v>21.092420845075335</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>2018</v>
       </c>
       <c r="B72" s="5">
-        <v>365.72500000000002</v>
+        <v>265.59500000000003</v>
       </c>
       <c r="C72" s="5">
-        <v>258.57799999999997</v>
+        <v>59.530999999999999</v>
+      </c>
+      <c r="D72" s="11">
+        <v>22.414202074587244</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>2019</v>
       </c>
       <c r="B73" s="5">
-        <v>338.51600000000002</v>
+        <v>260.17399999999998</v>
       </c>
       <c r="C73" s="5">
-        <v>248.02799999999999</v>
+        <v>55.256</v>
+      </c>
+      <c r="D73" s="11">
+        <v>21.23809450598446</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>2020</v>
       </c>
       <c r="B74" s="5">
-        <v>323.88799999999998</v>
+        <v>274.51499999999999</v>
       </c>
       <c r="C74" s="5">
-        <v>258.54899999999998</v>
+        <v>57.411000000000001</v>
+      </c>
+      <c r="D74" s="11">
+        <v>20.913611278072239</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2021</v>
       </c>
       <c r="B75" s="5">
-        <v>351.00200000000001</v>
+        <v>365.81700000000001</v>
       </c>
       <c r="C75" s="5">
-        <v>287.91199999999998</v>
+        <v>94.68</v>
+      </c>
+      <c r="D75" s="11">
+        <v>25.881793355694242</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>2022</v>
       </c>
       <c r="B76" s="5">
-        <v>352.755</v>
+        <v>394.32799999999997</v>
       </c>
       <c r="C76" s="5">
-        <v>302.08300000000003</v>
+        <v>99.802999999999997</v>
+      </c>
+      <c r="D76" s="11">
+        <v>25.309640705199733</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>2023</v>
       </c>
       <c r="B77" s="5">
-        <v>352.58300000000003</v>
+        <v>383.28500000000003</v>
       </c>
       <c r="C77" s="5">
-        <v>290.43700000000001</v>
+        <v>96.995000000000005</v>
+      </c>
+      <c r="D77" s="11">
+        <v>25.306234264320281</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>2024</v>
       </c>
       <c r="B78" s="5">
-        <v>364.98</v>
+        <v>391.03500000000003</v>
       </c>
       <c r="C78" s="5">
-        <v>308.02999999999997</v>
+        <v>93.736000000000004</v>
+      </c>
+      <c r="D78" s="11">
+        <v>23.971255769943866</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B79" s="9">
-        <v>4290.7569999999996</v>
+        <v>3739.9289999999996</v>
       </c>
       <c r="C79" s="9">
-        <v>2903.9219999999996</v>
+        <v>871.29399999999998</v>
+      </c>
+      <c r="D79" s="12">
+        <v>23.297073286685389</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
+    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>30</v>
+      <c r="A82" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B83" s="5">
-        <v>42.905000000000001</v>
-      </c>
-      <c r="C83" s="5">
-        <v>8.2349999999999994</v>
-      </c>
-      <c r="D83" s="13">
-        <v>19.193567183311966</v>
+      <c r="A83" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B83" s="19">
+        <v>134.661</v>
+      </c>
+      <c r="C83" s="19">
+        <v>391.03500000000003</v>
+      </c>
+      <c r="D83" s="19">
+        <v>93.736000000000004</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B84" s="5">
-        <v>65.224999999999994</v>
-      </c>
-      <c r="C84" s="5">
-        <v>14.013</v>
-      </c>
-      <c r="D84" s="13">
-        <v>21.484093522422384</v>
+      <c r="A84" s="18">
+        <v>2023</v>
+      </c>
+      <c r="B84" s="19">
+        <v>125.82</v>
+      </c>
+      <c r="C84" s="19">
+        <v>383.28500000000003</v>
+      </c>
+      <c r="D84" s="19">
+        <v>96.995000000000005</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B85" s="5">
-        <v>108.249</v>
-      </c>
-      <c r="C85" s="5">
-        <v>25.922000000000001</v>
-      </c>
-      <c r="D85" s="13">
-        <v>23.946641539413761</v>
+      <c r="A85" s="18">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="19">
+        <v>130.541</v>
+      </c>
+      <c r="C85" s="19">
+        <v>394.32799999999997</v>
+      </c>
+      <c r="D85" s="19">
+        <v>99.802999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B86" s="5">
-        <v>156.50800000000001</v>
-      </c>
-      <c r="C86" s="5">
-        <v>41.732999999999997</v>
-      </c>
-      <c r="D86" s="13">
-        <v>26.665090602397317</v>
+      <c r="A86" s="18">
+        <v>2021</v>
+      </c>
+      <c r="B86" s="19">
+        <v>120.233</v>
+      </c>
+      <c r="C86" s="19">
+        <v>365.81700000000001</v>
+      </c>
+      <c r="D86" s="19">
+        <v>94.68</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B87" s="5">
-        <v>170.91</v>
-      </c>
-      <c r="C87" s="5">
-        <v>37.036999999999999</v>
-      </c>
-      <c r="D87" s="13">
-        <v>21.670469837926394</v>
+      <c r="A87" s="18">
+        <v>2020</v>
+      </c>
+      <c r="B87" s="19">
+        <v>77.343999999999994</v>
+      </c>
+      <c r="C87" s="19">
+        <v>274.51499999999999</v>
+      </c>
+      <c r="D87" s="19">
+        <v>57.411000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B88" s="5">
-        <v>182.79499999999999</v>
-      </c>
-      <c r="C88" s="5">
-        <v>39.51</v>
-      </c>
-      <c r="D88" s="13">
-        <v>21.614376760852323</v>
+      <c r="A88" s="18">
+        <v>2019</v>
+      </c>
+      <c r="B88" s="19">
+        <v>76.477000000000004</v>
+      </c>
+      <c r="C88" s="19">
+        <v>260.17399999999998</v>
+      </c>
+      <c r="D88" s="19">
+        <v>55.256</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B89" s="5">
-        <v>233.715</v>
-      </c>
-      <c r="C89" s="5">
-        <v>53.393999999999998</v>
-      </c>
-      <c r="D89" s="13">
-        <v>22.845773698735638</v>
+      <c r="A89" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B89" s="19">
+        <v>81.801000000000002</v>
+      </c>
+      <c r="C89" s="19">
+        <v>265.59500000000003</v>
+      </c>
+      <c r="D89" s="19">
+        <v>59.530999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B90" s="5">
-        <v>215.63900000000001</v>
-      </c>
-      <c r="C90" s="5">
-        <v>45.686999999999998</v>
-      </c>
-      <c r="D90" s="13">
-        <v>21.186798306428798</v>
+      <c r="A90" s="18">
+        <v>2017</v>
+      </c>
+      <c r="B90" s="19">
+        <v>71.501000000000005</v>
+      </c>
+      <c r="C90" s="19">
+        <v>229.23400000000001</v>
+      </c>
+      <c r="D90" s="19">
+        <v>48.350999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B91" s="5">
-        <v>229.23400000000001</v>
-      </c>
-      <c r="C91" s="5">
-        <v>48.350999999999999</v>
-      </c>
-      <c r="D91" s="13">
-        <v>21.092420845075335</v>
+      <c r="A91" s="18">
+        <v>2016</v>
+      </c>
+      <c r="B91" s="19">
+        <v>70.528999999999996</v>
+      </c>
+      <c r="C91" s="19">
+        <v>215.63900000000001</v>
+      </c>
+      <c r="D91" s="19">
+        <v>45.686999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B92" s="5">
-        <v>265.59500000000003</v>
-      </c>
-      <c r="C92" s="5">
-        <v>59.530999999999999</v>
-      </c>
-      <c r="D92" s="13">
-        <v>22.414202074587244</v>
+      <c r="A92" s="18">
+        <v>2015</v>
+      </c>
+      <c r="B92" s="19">
+        <v>82.486999999999995</v>
+      </c>
+      <c r="C92" s="19">
+        <v>233.715</v>
+      </c>
+      <c r="D92" s="19">
+        <v>53.393999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B93" s="5">
-        <v>260.17399999999998</v>
-      </c>
-      <c r="C93" s="5">
-        <v>55.256</v>
-      </c>
-      <c r="D93" s="13">
-        <v>21.23809450598446</v>
+      <c r="A93" s="18">
+        <v>2014</v>
+      </c>
+      <c r="B93" s="19">
+        <v>60.448999999999998</v>
+      </c>
+      <c r="C93" s="19">
+        <v>182.79499999999999</v>
+      </c>
+      <c r="D93" s="19">
+        <v>39.51</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B94" s="5">
-        <v>274.51499999999999</v>
-      </c>
-      <c r="C94" s="5">
-        <v>57.411000000000001</v>
-      </c>
-      <c r="D94" s="13">
-        <v>20.913611278072239</v>
+      <c r="A94" s="18">
+        <v>2013</v>
+      </c>
+      <c r="B94" s="19">
+        <v>55.756</v>
+      </c>
+      <c r="C94" s="19">
+        <v>170.91</v>
+      </c>
+      <c r="D94" s="19">
+        <v>37.036999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B95" s="5">
-        <v>365.81700000000001</v>
-      </c>
-      <c r="C95" s="5">
-        <v>94.68</v>
-      </c>
-      <c r="D95" s="13">
-        <v>25.881793355694242</v>
+      <c r="A95" s="18">
+        <v>2012</v>
+      </c>
+      <c r="B95" s="19">
+        <v>58.518000000000001</v>
+      </c>
+      <c r="C95" s="19">
+        <v>156.50800000000001</v>
+      </c>
+      <c r="D95" s="19">
+        <v>41.732999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B96" s="5">
-        <v>394.32799999999997</v>
-      </c>
-      <c r="C96" s="5">
-        <v>99.802999999999997</v>
-      </c>
-      <c r="D96" s="13">
-        <v>25.309640705199733</v>
+      <c r="A96" s="18">
+        <v>2011</v>
+      </c>
+      <c r="B96" s="19">
+        <v>35.603999999999999</v>
+      </c>
+      <c r="C96" s="19">
+        <v>108.249</v>
+      </c>
+      <c r="D96" s="19">
+        <v>25.922000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B97" s="5">
-        <v>383.28500000000003</v>
-      </c>
-      <c r="C97" s="5">
-        <v>96.995000000000005</v>
-      </c>
-      <c r="D97" s="13">
-        <v>25.306234264320281</v>
+      <c r="A97" s="18">
+        <v>2010</v>
+      </c>
+      <c r="B97" s="19">
+        <v>19.411999999999999</v>
+      </c>
+      <c r="C97" s="19">
+        <v>65.224999999999994</v>
+      </c>
+      <c r="D97" s="19">
+        <v>14.013</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B98" s="5">
-        <v>391.03500000000003</v>
-      </c>
-      <c r="C98" s="5">
-        <v>93.736000000000004</v>
-      </c>
-      <c r="D98" s="13">
-        <v>23.971255769943866</v>
+      <c r="A98" s="18">
+        <v>2009</v>
+      </c>
+      <c r="B98" s="19">
+        <v>12.474</v>
+      </c>
+      <c r="C98" s="19">
+        <v>42.905000000000001</v>
+      </c>
+      <c r="D98" s="19">
+        <v>8.2349999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" s="9">
-        <v>3739.9289999999996</v>
-      </c>
-      <c r="C99" s="9">
-        <v>871.29399999999998</v>
-      </c>
-      <c r="D99" s="14">
-        <v>23.297073286685389</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+    <row r="101" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="C101" s="13"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>5</v>
+      <c r="A102" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="20">
+      <c r="A103" s="14">
         <v>2024</v>
       </c>
       <c r="B103" s="21">
-        <v>134.661</v>
-      </c>
-      <c r="C103" s="21">
         <v>391.03500000000003</v>
-      </c>
-      <c r="D103" s="21">
-        <v>93.736000000000004</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="20">
+      <c r="A104" s="14">
         <v>2023</v>
       </c>
       <c r="B104" s="21">
-        <v>125.82</v>
-      </c>
-      <c r="C104" s="21">
         <v>383.28500000000003</v>
-      </c>
-      <c r="D104" s="21">
-        <v>96.995000000000005</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
+      <c r="A105" s="14">
         <v>2022</v>
       </c>
       <c r="B105" s="21">
-        <v>130.541</v>
-      </c>
-      <c r="C105" s="21">
         <v>394.32799999999997</v>
-      </c>
-      <c r="D105" s="21">
-        <v>99.802999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="20">
-        <v>2021</v>
-      </c>
-      <c r="B106" s="21">
-        <v>120.233</v>
-      </c>
-      <c r="C106" s="21">
-        <v>365.81700000000001</v>
-      </c>
-      <c r="D106" s="21">
-        <v>94.68</v>
+      <c r="A106" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="9">
+        <v>1168.6480000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
-        <v>2020</v>
-      </c>
-      <c r="B107" s="21">
-        <v>77.343999999999994</v>
-      </c>
-      <c r="C107" s="21">
-        <v>274.51499999999999</v>
-      </c>
-      <c r="D107" s="21">
-        <v>57.411000000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
-        <v>2019</v>
-      </c>
-      <c r="B108" s="21">
-        <v>76.477000000000004</v>
-      </c>
-      <c r="C108" s="21">
-        <v>260.17399999999998</v>
-      </c>
-      <c r="D108" s="21">
-        <v>55.256</v>
-      </c>
+    <row r="108" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="20">
-        <v>2018</v>
-      </c>
-      <c r="B109" s="21">
-        <v>81.801000000000002</v>
-      </c>
-      <c r="C109" s="21">
-        <v>265.59500000000003</v>
-      </c>
-      <c r="D109" s="21">
-        <v>59.530999999999999</v>
+      <c r="A109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="20">
-        <v>2017</v>
-      </c>
-      <c r="B110" s="21">
-        <v>71.501000000000005</v>
-      </c>
-      <c r="C110" s="21">
-        <v>229.23400000000001</v>
-      </c>
-      <c r="D110" s="21">
-        <v>48.350999999999999</v>
+      <c r="A110" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B110" s="5">
+        <v>42.905000000000001</v>
+      </c>
+      <c r="C110" s="5">
+        <v>11.74</v>
+      </c>
+      <c r="D110" s="5">
+        <v>12.474</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
-        <v>2016</v>
-      </c>
-      <c r="B111" s="21">
-        <v>70.528999999999996</v>
-      </c>
-      <c r="C111" s="21">
-        <v>215.63900000000001</v>
-      </c>
-      <c r="D111" s="21">
-        <v>45.686999999999998</v>
+      <c r="A111" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B111" s="5">
+        <v>65.224999999999994</v>
+      </c>
+      <c r="C111" s="5">
+        <v>18.385000000000002</v>
+      </c>
+      <c r="D111" s="5">
+        <v>19.411999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="20">
-        <v>2015</v>
-      </c>
-      <c r="B112" s="21">
-        <v>82.486999999999995</v>
-      </c>
-      <c r="C112" s="21">
-        <v>233.715</v>
-      </c>
-      <c r="D112" s="21">
-        <v>53.393999999999998</v>
+      <c r="A112" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B112" s="5">
+        <v>108.249</v>
+      </c>
+      <c r="C112" s="5">
+        <v>33.79</v>
+      </c>
+      <c r="D112" s="5">
+        <v>35.603999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="20">
-        <v>2014</v>
-      </c>
-      <c r="B113" s="21">
-        <v>60.448999999999998</v>
-      </c>
-      <c r="C113" s="21">
-        <v>182.79499999999999</v>
-      </c>
-      <c r="D113" s="21">
-        <v>39.51</v>
+      <c r="A113" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B113" s="5">
+        <v>156.50800000000001</v>
+      </c>
+      <c r="C113" s="5">
+        <v>55.241</v>
+      </c>
+      <c r="D113" s="5">
+        <v>58.518000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="20">
+      <c r="A114" s="2">
         <v>2013</v>
       </c>
-      <c r="B114" s="21">
+      <c r="B114" s="5">
+        <v>170.91</v>
+      </c>
+      <c r="C114" s="5">
+        <v>48.999000000000002</v>
+      </c>
+      <c r="D114" s="5">
         <v>55.756</v>
-      </c>
-      <c r="C114" s="21">
-        <v>170.91</v>
-      </c>
-      <c r="D114" s="21">
-        <v>37.036999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="20">
-        <v>2012</v>
-      </c>
-      <c r="B115" s="21">
-        <v>58.518000000000001</v>
-      </c>
-      <c r="C115" s="21">
-        <v>156.50800000000001</v>
-      </c>
-      <c r="D115" s="21">
-        <v>41.732999999999997</v>
+      <c r="A115" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B115" s="5">
+        <v>182.79499999999999</v>
+      </c>
+      <c r="C115" s="5">
+        <v>52.503</v>
+      </c>
+      <c r="D115" s="5">
+        <v>60.448999999999998</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
-        <v>2011</v>
-      </c>
-      <c r="B116" s="21">
-        <v>35.603999999999999</v>
-      </c>
-      <c r="C116" s="21">
-        <v>108.249</v>
-      </c>
-      <c r="D116" s="21">
-        <v>25.922000000000001</v>
+      <c r="A116" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B116" s="5">
+        <v>233.715</v>
+      </c>
+      <c r="C116" s="5">
+        <v>71.23</v>
+      </c>
+      <c r="D116" s="5">
+        <v>82.486999999999995</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="20">
-        <v>2010</v>
-      </c>
-      <c r="B117" s="21">
-        <v>19.411999999999999</v>
-      </c>
-      <c r="C117" s="21">
-        <v>65.224999999999994</v>
-      </c>
-      <c r="D117" s="21">
-        <v>14.013</v>
+      <c r="A117" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B117" s="5">
+        <v>215.63900000000001</v>
+      </c>
+      <c r="C117" s="5">
+        <v>60.024000000000001</v>
+      </c>
+      <c r="D117" s="5">
+        <v>70.528999999999996</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="20">
-        <v>2009</v>
-      </c>
-      <c r="B118" s="21">
-        <v>12.474</v>
-      </c>
-      <c r="C118" s="21">
-        <v>42.905000000000001</v>
-      </c>
-      <c r="D118" s="21">
-        <v>8.2349999999999994</v>
+      <c r="A118" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B118" s="5">
+        <v>229.23400000000001</v>
+      </c>
+      <c r="C118" s="5">
+        <v>61.344000000000001</v>
+      </c>
+      <c r="D118" s="5">
+        <v>71.501000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B121" s="27"/>
-      <c r="C121" s="15"/>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B119" s="5">
+        <v>265.59500000000003</v>
+      </c>
+      <c r="C119" s="5">
+        <v>70.897999999999996</v>
+      </c>
+      <c r="D119" s="5">
+        <v>81.801000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B120" s="5">
+        <v>260.17399999999998</v>
+      </c>
+      <c r="C120" s="5">
+        <v>63.93</v>
+      </c>
+      <c r="D120" s="5">
+        <v>76.477000000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B121" s="5">
+        <v>274.51499999999999</v>
+      </c>
+      <c r="C121" s="5">
+        <v>66.287999999999997</v>
+      </c>
+      <c r="D121" s="5">
+        <v>77.343999999999994</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>18</v>
+      <c r="A122" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B122" s="5">
+        <v>365.81700000000001</v>
+      </c>
+      <c r="C122" s="5">
+        <v>108.949</v>
+      </c>
+      <c r="D122" s="5">
+        <v>120.233</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="16">
-        <v>2024</v>
-      </c>
-      <c r="B123" s="23">
-        <v>391.03500000000003</v>
+      <c r="A123" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B123" s="5">
+        <v>394.32799999999997</v>
+      </c>
+      <c r="C123" s="5">
+        <v>119.437</v>
+      </c>
+      <c r="D123" s="5">
+        <v>130.541</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="16">
+      <c r="A124" s="2">
         <v>2023</v>
       </c>
-      <c r="B124" s="23">
+      <c r="B124" s="5">
         <v>383.28500000000003</v>
+      </c>
+      <c r="C124" s="5">
+        <v>114.301</v>
+      </c>
+      <c r="D124" s="5">
+        <v>125.82</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="16">
-        <v>2022</v>
-      </c>
-      <c r="B125" s="23">
-        <v>394.32799999999997</v>
+      <c r="A125" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B125" s="5">
+        <v>391.03500000000003</v>
+      </c>
+      <c r="C125" s="5">
+        <v>123.21599999999999</v>
+      </c>
+      <c r="D125" s="5">
+        <v>134.661</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B126" s="9">
-        <v>1168.6480000000001</v>
+      <c r="B126" s="10">
+        <v>3739.9289999999996</v>
+      </c>
+      <c r="C126" s="10">
+        <v>1080.2749999999999</v>
+      </c>
+      <c r="D126" s="10">
+        <v>1213.607</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="24"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="B129" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B130" s="5">
-        <v>42.905000000000001</v>
-      </c>
-      <c r="C130" s="5">
-        <v>11.74</v>
-      </c>
-      <c r="D130" s="5">
-        <v>12.474</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B131" s="5">
-        <v>65.224999999999994</v>
-      </c>
-      <c r="C131" s="5">
-        <v>18.385000000000002</v>
-      </c>
-      <c r="D131" s="5">
-        <v>19.411999999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B132" s="5">
-        <v>108.249</v>
-      </c>
-      <c r="C132" s="5">
-        <v>33.79</v>
-      </c>
-      <c r="D132" s="5">
-        <v>35.603999999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B133" s="5">
-        <v>156.50800000000001</v>
-      </c>
-      <c r="C133" s="5">
-        <v>55.241</v>
-      </c>
-      <c r="D133" s="5">
-        <v>58.518000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B134" s="5">
-        <v>170.91</v>
-      </c>
-      <c r="C134" s="5">
-        <v>48.999000000000002</v>
-      </c>
-      <c r="D134" s="5">
-        <v>55.756</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B135" s="5">
-        <v>182.79499999999999</v>
-      </c>
-      <c r="C135" s="5">
-        <v>52.503</v>
-      </c>
-      <c r="D135" s="5">
-        <v>60.448999999999998</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B136" s="5">
-        <v>233.715</v>
-      </c>
-      <c r="C136" s="5">
-        <v>71.23</v>
-      </c>
-      <c r="D136" s="5">
-        <v>82.486999999999995</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B137" s="5">
-        <v>215.63900000000001</v>
-      </c>
-      <c r="C137" s="5">
-        <v>60.024000000000001</v>
-      </c>
-      <c r="D137" s="5">
-        <v>70.528999999999996</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B138" s="5">
-        <v>229.23400000000001</v>
-      </c>
-      <c r="C138" s="5">
-        <v>61.344000000000001</v>
-      </c>
-      <c r="D138" s="5">
-        <v>71.501000000000005</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B139" s="5">
-        <v>265.59500000000003</v>
-      </c>
-      <c r="C139" s="5">
-        <v>70.897999999999996</v>
-      </c>
-      <c r="D139" s="5">
-        <v>81.801000000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B140" s="5">
-        <v>260.17399999999998</v>
-      </c>
-      <c r="C140" s="5">
-        <v>63.93</v>
-      </c>
-      <c r="D140" s="5">
-        <v>76.477000000000004</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B141" s="5">
-        <v>274.51499999999999</v>
-      </c>
-      <c r="C141" s="5">
-        <v>66.287999999999997</v>
-      </c>
-      <c r="D141" s="5">
-        <v>77.343999999999994</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B142" s="5">
-        <v>365.81700000000001</v>
-      </c>
-      <c r="C142" s="5">
-        <v>108.949</v>
-      </c>
-      <c r="D142" s="5">
-        <v>120.233</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B143" s="5">
-        <v>394.32799999999997</v>
-      </c>
-      <c r="C143" s="5">
-        <v>119.437</v>
-      </c>
-      <c r="D143" s="5">
-        <v>130.541</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B144" s="5">
-        <v>383.28500000000003</v>
-      </c>
-      <c r="C144" s="5">
-        <v>114.301</v>
-      </c>
-      <c r="D144" s="5">
-        <v>125.82</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B145" s="5">
-        <v>391.03500000000003</v>
-      </c>
-      <c r="C145" s="5">
-        <v>123.21599999999999</v>
-      </c>
-      <c r="D145" s="5">
-        <v>134.661</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B146" s="12">
-        <v>3739.9289999999996</v>
-      </c>
-      <c r="C146" s="12">
-        <v>1080.2749999999999</v>
-      </c>
-      <c r="D146" s="12">
-        <v>1213.607</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A148" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B148" s="25"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
         <f>SUM(Tabela1[Total Assets (millions)])</f>
         <v>4290.7569999999996</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B130" s="5">
         <f>SUM(Tabela1[Total Liabilities (millions)])</f>
         <v>2903.9219999999991</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A61:C61"/>
+  <mergeCells count="8">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A128:B128"/>
     <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -18127,7 +17812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D932B79-2DF3-49FF-9F55-A54C0B5AB0A5}">
   <dimension ref="B21:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
@@ -18145,9 +17830,9 @@
   </cols>
   <sheetData>
     <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
